--- a/outputs.xlsx
+++ b/outputs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\andrewgu\factorioplanner\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785"/>
+    <workbookView xWindow="990" yWindow="-195" windowWidth="14805" windowHeight="13410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -180,12 +175,21 @@
   </si>
   <si>
     <t>Accumulator</t>
+  </si>
+  <si>
+    <t>Red Transport Belt</t>
+  </si>
+  <si>
+    <t>Blue Transport Belt</t>
+  </si>
+  <si>
+    <t>Laser Turret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,7 +527,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,18 +535,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="16.796875" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -564,386 +568,385 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
         <f>1/$C2 * $B2</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E42" si="0">1/$C3 * $B3</f>
-        <v>0.2</v>
+        <f>1/$C3 * $B3</f>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f>1/$C4 * $B4</f>
         <v>0.2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <f>1/$C5 * $B5</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f>1/$C6 * $B6</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <f>1/$C7 * $B7</f>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <f>C6</f>
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333329E-2</v>
+        <f>1/$C8 * $B8</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>1/$C9 * $B9</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>1/$C10 * $B10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1/$C11 * $B11</f>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <f>1/$C12 * $B12</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
+        <f>1/$C13 * $B13</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>1/$C14 * $B14</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1/$C15 * $B15</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>1/$C16 * $B16</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1/$C17 * $B17</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>1/$C18 * $B18</f>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <f>1/$C19 * $B19</f>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>1/$C20 * $B20</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>1/$C21 * $B21</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>1/$C22 * $B22</f>
+        <v>0.125</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -955,278 +958,278 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f>1/$C23 * $B23</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <f>1/$C24 * $B24</f>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0.2857142857142857</v>
+        <f>1/$C25 * $B25</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>1/$C26 * $B26</f>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f>1/$C27 * $B27</f>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>1/$C28 * $B28</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f>1/$C29 * $B29</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <f>1/$C30 * $B30</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
+        <f>1/$C31 * $B31</f>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>1/$C32 * $B32</f>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <f>1/$C33 * $B33</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>5.7142857142857141E-2</v>
+        <f>1/$C34 * $B34</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1.75</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <f>1/$C35 * $B35</f>
+        <v>6.6666666666666666E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>17.5</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>1/$C36 * $B36</f>
+        <v>5.7142857142857141E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
+        <v>1.75</v>
+      </c>
+      <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" t="s">
-        <v>10</v>
-      </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>0.14285714285714285</v>
+        <f>1/$C37 * $B37</f>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>1/$C38 * $B38</f>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -1234,7 +1237,7 @@
         <v>46</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1243,67 +1246,121 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>1/$C39 * $B39</f>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>1/$C40 * $B40</f>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1200</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>1/$C41 * $B41</f>
+        <v>1200</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>0.1</v>
+        <f>1/$C42 * $B42</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <f>1/$C43 * $B43</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <f>1/$C44 * $B44</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <f>1/$C45 * $B45</f>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E35">
-    <sortState ref="A2:E37">
+    <sortState ref="A2:E42">
       <sortCondition ref="A1:A35"/>
     </sortState>
   </autoFilter>

--- a/outputs.xlsx
+++ b/outputs.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\andrewgu\factorioplanner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="990" yWindow="-195" windowWidth="14805" windowHeight="13410"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -189,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,7 +532,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,19 +542,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" customWidth="1"/>
+    <col min="5" max="5" width="16.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +571,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -580,11 +585,11 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <f>1/$C2 * $B2</f>
+        <f t="shared" ref="E2:E45" si="0">1/$C2 * $B2</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -598,11 +603,11 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <f>1/$C3 * $B3</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -616,11 +621,11 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <f>1/$C4 * $B4</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -634,11 +639,11 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <f>1/$C5 * $B5</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -652,11 +657,11 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <f>1/$C6 * $B6</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -670,11 +675,11 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>1/$C7 * $B7</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -688,11 +693,11 @@
         <v>15</v>
       </c>
       <c r="E8">
-        <f>1/$C8 * $B8</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -706,11 +711,11 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <f>1/$C9 * $B9</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -724,11 +729,11 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <f>1/$C10 * $B10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -742,11 +747,11 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <f>1/$C11 * $B11</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -760,11 +765,11 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <f>1/$C12 * $B12</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -778,11 +783,11 @@
         <v>15</v>
       </c>
       <c r="E13">
-        <f>1/$C13 * $B13</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -796,11 +801,11 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <f>1/$C14 * $B14</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -814,11 +819,11 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <f>1/$C15 * $B15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -832,11 +837,11 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <f>1/$C16 * $B16</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -850,11 +855,11 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <f>1/$C17 * $B17</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -868,11 +873,11 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <f>1/$C18 * $B18</f>
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -886,11 +891,11 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <f>1/$C19 * $B19</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -904,11 +909,11 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>1/$C20 * $B20</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -922,11 +927,11 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <f>1/$C21 * $B21</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -940,11 +945,11 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <f>1/$C22 * $B22</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -958,11 +963,11 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <f>1/$C23 * $B23</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -976,11 +981,11 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <f>1/$C24 * $B24</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -994,11 +999,11 @@
         <v>14</v>
       </c>
       <c r="E25">
-        <f>1/$C25 * $B25</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1012,11 +1017,11 @@
         <v>15</v>
       </c>
       <c r="E26">
-        <f>1/$C26 * $B26</f>
+        <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1030,11 +1035,11 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <f>1/$C27 * $B27</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1048,11 +1053,11 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <f>1/$C28 * $B28</f>
+        <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1066,11 +1071,11 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <f>1/$C29 * $B29</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1084,11 +1089,11 @@
         <v>12</v>
       </c>
       <c r="E30">
-        <f>1/$C30 * $B30</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1102,11 +1107,11 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <f>1/$C31 * $B31</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1120,11 +1125,11 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <f>1/$C32 * $B32</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1138,11 +1143,11 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <f>1/$C33 * $B33</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -1156,11 +1161,11 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <f>1/$C34 * $B34</f>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -1174,11 +1179,11 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <f>1/$C35 * $B35</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -1192,11 +1197,11 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <f>1/$C36 * $B36</f>
+        <f t="shared" si="0"/>
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -1210,11 +1215,11 @@
         <v>14</v>
       </c>
       <c r="E37">
-        <f>1/$C37 * $B37</f>
+        <f t="shared" si="0"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1228,11 +1233,11 @@
         <v>12</v>
       </c>
       <c r="E38">
-        <f>1/$C38 * $B38</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1246,11 +1251,11 @@
         <v>12</v>
       </c>
       <c r="E39">
-        <f>1/$C39 * $B39</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>34</v>
       </c>
@@ -1264,11 +1269,11 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <f>1/$C40 * $B40</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1282,11 +1287,11 @@
         <v>48</v>
       </c>
       <c r="E41">
-        <f>1/$C41 * $B41</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1300,11 +1305,11 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <f>1/$C42 * $B42</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1318,11 +1323,11 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <f>1/$C43 * $B43</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1336,11 +1341,11 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <f>1/$C44 * $B44</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1354,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <f>1/$C45 * $B45</f>
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
